--- a/Plan_de_projet.xlsx
+++ b/Plan_de_projet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\BabyRoger\Desktop\projet_2ieme_annee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp64\www\Projet2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">Description Technique : </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Utilisation du framework Symphony 3 pour l'application de gestion ET l'application client</t>
   </si>
@@ -114,9 +111,6 @@
     <t>Visualisation d'anciens abonnements</t>
   </si>
   <si>
-    <t>Système d'authetification par challenge/reponse</t>
-  </si>
-  <si>
     <t>Economiser la data utilisateur</t>
   </si>
   <si>
@@ -133,13 +127,77 @@
   </si>
   <si>
     <t>LIVRAISON LE 6 JUILLET</t>
+  </si>
+  <si>
+    <t>CRUD Utilisateur</t>
+  </si>
+  <si>
+    <t>CRUD Abonnement</t>
+  </si>
+  <si>
+    <t>CRUD Paiement</t>
+  </si>
+  <si>
+    <t>CRUD Magasine</t>
+  </si>
+  <si>
+    <t>CRUD Historique</t>
+  </si>
+  <si>
+    <t>Authentification (challenge/reponse)</t>
+  </si>
+  <si>
+    <t>Système d'authentification par challenge/reponse</t>
+  </si>
+  <si>
+    <t>Mise en place serveur Mail</t>
+  </si>
+  <si>
+    <t>Création d'un CRON Quotidien</t>
+  </si>
+  <si>
+    <t>Traitement statistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de compte   </t>
+  </si>
+  <si>
+    <t>Optimisation</t>
+  </si>
+  <si>
+    <t>FONCTIONNALITE</t>
+  </si>
+  <si>
+    <t>EXIGENCE</t>
+  </si>
+  <si>
+    <t>Authentification</t>
+  </si>
+  <si>
+    <t>JALON 1   =&gt; 16/06</t>
+  </si>
+  <si>
+    <t>JALON 4</t>
+  </si>
+  <si>
+    <t>JALON 2 =&gt; 21/06</t>
+  </si>
+  <si>
+    <t>JALON 3 =&gt; 26/06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -164,12 +222,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,12 +664,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -509,177 +679,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection sqref="A1:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>19</v>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>30</v>
+      <c r="C29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>32</v>
+      <c r="B31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -689,29 +859,238 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -721,12 +1100,90 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plan_de_projet.xlsx
+++ b/Plan_de_projet.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Description" sheetId="2" r:id="rId1"/>
+    <sheet name="Description technique" sheetId="2" r:id="rId1"/>
     <sheet name="Exigences" sheetId="3" r:id="rId2"/>
     <sheet name="Fonctionnalitées" sheetId="4" r:id="rId3"/>
     <sheet name="Correspondance" sheetId="1" r:id="rId4"/>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
-  <si>
-    <t>Utilisation du framework Symphony 3 pour l'application de gestion ET l'application client</t>
-  </si>
-  <si>
-    <t>API REST en WebService faite avec Symphony 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>Application Mobile pour les clients</t>
   </si>
@@ -129,21 +123,6 @@
     <t>LIVRAISON LE 6 JUILLET</t>
   </si>
   <si>
-    <t>CRUD Utilisateur</t>
-  </si>
-  <si>
-    <t>CRUD Abonnement</t>
-  </si>
-  <si>
-    <t>CRUD Paiement</t>
-  </si>
-  <si>
-    <t>CRUD Magasine</t>
-  </si>
-  <si>
-    <t>CRUD Historique</t>
-  </si>
-  <si>
     <t>Authentification (challenge/reponse)</t>
   </si>
   <si>
@@ -159,31 +138,178 @@
     <t>Traitement statistique</t>
   </si>
   <si>
-    <t xml:space="preserve">Création de compte   </t>
-  </si>
-  <si>
-    <t>Optimisation</t>
-  </si>
-  <si>
     <t>FONCTIONNALITE</t>
   </si>
   <si>
     <t>EXIGENCE</t>
   </si>
   <si>
-    <t>Authentification</t>
-  </si>
-  <si>
-    <t>JALON 1   =&gt; 16/06</t>
-  </si>
-  <si>
     <t>JALON 4</t>
   </si>
   <si>
-    <t>JALON 2 =&gt; 21/06</t>
-  </si>
-  <si>
-    <t>JALON 3 =&gt; 26/06</t>
+    <t xml:space="preserve">JALON 3 </t>
+  </si>
+  <si>
+    <t>JALON 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JALON 1   </t>
+  </si>
+  <si>
+    <t>API REST en WebService faite avec Symfony 3</t>
+  </si>
+  <si>
+    <t>Utilisation du framework Symfony 3 pour l'application de gestion ET l'application client</t>
+  </si>
+  <si>
+    <t>Utilisation de CSS 3, Jquery et HTML 5</t>
+  </si>
+  <si>
+    <t>Utilisation de base de données POSTGRESQL donné par le client</t>
+  </si>
+  <si>
+    <t>Utiliser le Service de paiement  du prestataire esipay</t>
+  </si>
+  <si>
+    <t>Couche de données Authentification</t>
+  </si>
+  <si>
+    <t>Formulaire Connexion client/gestionnaire</t>
+  </si>
+  <si>
+    <t>Formulaire d'inscription client</t>
+  </si>
+  <si>
+    <t>Configuration environnement de developement</t>
+  </si>
+  <si>
+    <t>Configuration d'accès à la BDD client</t>
+  </si>
+  <si>
+    <t>Couche de données Gestion de comptes</t>
+  </si>
+  <si>
+    <t>Formulaire de modification de comptes client (client/gestion)</t>
+  </si>
+  <si>
+    <t>Couche de données de gestion des magasines</t>
+  </si>
+  <si>
+    <t>Formulaire de création, modification (gestion)</t>
+  </si>
+  <si>
+    <t>liste de magasine (client/gestion)</t>
+  </si>
+  <si>
+    <t>Couche de données Historiques</t>
+  </si>
+  <si>
+    <t>Lister l'historique d'un utilisateur (gestion)</t>
+  </si>
+  <si>
+    <t>Formulaire de création d'historique utilisateur (gestion)</t>
+  </si>
+  <si>
+    <t>Formulaire de création d'historique globale (gestion)</t>
+  </si>
+  <si>
+    <t>Couche de données Abonnement</t>
+  </si>
+  <si>
+    <t>Formulaire de création d'abonnement (client)</t>
+  </si>
+  <si>
+    <t>Modifier le status d'un abonnement (client/gestion)</t>
+  </si>
+  <si>
+    <t>Lister ses abonnements (client)</t>
+  </si>
+  <si>
+    <t>Lister les abonnements d'un utilisateur (gestion)</t>
+  </si>
+  <si>
+    <t>Couche de données Paiement</t>
+  </si>
+  <si>
+    <t>Formulaire de paiement (client)</t>
+  </si>
+  <si>
+    <t>Action de remboursement (gestion)</t>
+  </si>
+  <si>
+    <t>Mise en avant des abonnements non payés (client / gestion)</t>
+  </si>
+  <si>
+    <t>JALON BONUS</t>
+  </si>
+  <si>
+    <t>Exigences de données</t>
+  </si>
+  <si>
+    <t>publications</t>
+  </si>
+  <si>
+    <t>titre</t>
+  </si>
+  <si>
+    <t>nombre de numéro à l'année</t>
+  </si>
+  <si>
+    <t>photo de couverture</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>prix annuel</t>
+  </si>
+  <si>
+    <t>Connexion</t>
+  </si>
+  <si>
+    <t>identifiant =&gt; adresse mail</t>
+  </si>
+  <si>
+    <t>mot de passe</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>date de naissance</t>
+  </si>
+  <si>
+    <t>lieu de naissance</t>
+  </si>
+  <si>
+    <t>Système d'authentification (client / gestion)</t>
+  </si>
+  <si>
+    <t>Création de compte (client)</t>
+  </si>
+  <si>
+    <t>Gestions des comptes clients (gestion)</t>
+  </si>
+  <si>
+    <t>Editions d'informations de compte (client/gestion)</t>
+  </si>
+  <si>
+    <t>Visualiser les abonnements en cours (client)</t>
   </si>
 </sst>
 </file>
@@ -258,37 +384,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -320,26 +415,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,22 +791,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -679,177 +821,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F35"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="M13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="M16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="M17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="M18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -859,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A4:H24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,54 +1078,121 @@
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="H7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -927,170 +1202,336 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1100,88 +1541,202 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
